--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P36_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P36_trail7 Features.xlsx
@@ -4328,7 +4328,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4339,29 +4339,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="21" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4382,115 +4380,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4507,72 +4495,66 @@
         <v>5.290571714361664e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.1660240704425489</v>
+        <v>1.455469190882782e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.614637820033245</v>
+        <v>1.119622902688308e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.455469190882782e-06</v>
+        <v>0.0253360613322945</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.119622902688308e-06</v>
+        <v>0.09273456239115173</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.0253360613322945</v>
+        <v>0.009228074395487658</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.09273456239115173</v>
+        <v>1.455530103057357</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.009228074395487658</v>
+        <v>1.49771667293542</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.366160974697023</v>
+        <v>3.524838781365834</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.49771667293542</v>
+        <v>7.579736538192688e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.524838781365834</v>
+        <v>20923922.61889416</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>7.579736538192688e-15</v>
+        <v>4.867294666285966e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>20923922.61889416</v>
+        <v>3.318488529876408</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.867294666285966e-06</v>
+        <v>0.0001845545358474195</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>3.318488529876408</v>
+        <v>8.969429244996995</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001845545358474195</v>
+        <v>1.481423382590577</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.969429244996995</v>
+        <v>0.01484753439596792</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.481423382590577</v>
+        <v>2.833941628145084</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01484753439596792</v>
+        <v>0.9228233111804895</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.833941628145084</v>
+        <v>1.861729725446823</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9228233111804895</v>
+        <v>5</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.861729725446823</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1410980562546157</v>
       </c>
     </row>
@@ -4587,72 +4569,66 @@
         <v>5.384330837693472e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.1262174762129504</v>
+        <v>1.46336527892488e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.648380373442114</v>
+        <v>1.134978942171903e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.46336527892488e-06</v>
+        <v>0.03177476325150334</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.134978942171903e-06</v>
+        <v>0.07333098202500628</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.03177476325150334</v>
+        <v>0.006380113464575576</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.07333098202500628</v>
+        <v>1.429145193954828</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.006380113464575576</v>
+        <v>1.536947216441126</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.341726033304856</v>
+        <v>3.46049465697173</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.536947216441126</v>
+        <v>7.86423097689172e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.46049465697173</v>
+        <v>21347342.17674262</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>7.86423097689172e-15</v>
+        <v>4.708830098249387e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>21347342.17674262</v>
+        <v>3.583800975890496</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.708830098249387e-06</v>
+        <v>0.0001865667383988762</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>3.583800975890496</v>
+        <v>9.275126219580576</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001865667383988762</v>
+        <v>1.458925487292834</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.275126219580576</v>
+        <v>0.01604995710031206</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.458925487292834</v>
+        <v>2.845351659216071</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01604995710031206</v>
+        <v>0.9195644683983927</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.845351659216071</v>
+        <v>1.876701076468015</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9195644683983927</v>
+        <v>6</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.876701076468015</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1409910472397394</v>
       </c>
     </row>
@@ -4667,72 +4643,66 @@
         <v>5.462244175238922e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.07373706116549145</v>
+        <v>1.476816525981433e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.668363022858758</v>
+        <v>1.15354299095215e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.476816525981433e-06</v>
+        <v>0.0363478663015161</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.15354299095215e-06</v>
+        <v>0.06003866092557103</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0363478663015161</v>
+        <v>0.004922409326673537</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.06003866092557103</v>
+        <v>1.428522351228999</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.004922409326673537</v>
+        <v>1.526737138793088</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.337435934475035</v>
+        <v>3.479386077728594</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.526737138793088</v>
+        <v>7.779064703244614e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.479386077728594</v>
+        <v>21652325.27653863</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.779064703244614e-15</v>
+        <v>4.652740011389157e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>21652325.27653863</v>
+        <v>3.647005928466096</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.652740011389157e-06</v>
+        <v>0.0001774714760359025</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>3.647005928466096</v>
+        <v>11.00133336507018</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001774714760359025</v>
+        <v>1.175909691180257</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.00133336507018</v>
+        <v>0.02147925486974028</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.175909691180257</v>
+        <v>2.766102973532875</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02147925486974028</v>
+        <v>0.9215952190625162</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.766102973532875</v>
+        <v>1.901616653848333</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9215952190625162</v>
+        <v>7</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.901616653848333</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1498076903045056</v>
       </c>
     </row>
@@ -4747,72 +4717,66 @@
         <v>5.519701516255986e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.01659276570801741</v>
+        <v>1.490728649738315e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.673094396548344</v>
+        <v>1.174470611125263e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.490728649738315e-06</v>
+        <v>0.03965382997299784</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.174470611125263e-06</v>
+        <v>0.05114974813332439</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.03965382997299784</v>
+        <v>0.004187137459102236</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.05114974813332439</v>
+        <v>1.444821372733176</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.004187137459102236</v>
+        <v>1.592878378312578</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.355643809422377</v>
+        <v>3.486399292330979</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.592878378312578</v>
+        <v>7.747799565130193e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.486399292330979</v>
+        <v>23036764.83794387</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>7.747799565130193e-15</v>
+        <v>4.483651823445445e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>23036764.83794387</v>
+        <v>4.111699385682736</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.483651823445445e-06</v>
+        <v>0.0001749566643531023</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>4.111699385682736</v>
+        <v>12.0048747950784</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001749566643531023</v>
+        <v>1.056250711328966</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>12.0048747950784</v>
+        <v>0.02521423289372338</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.056250711328966</v>
+        <v>2.575435083429537</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02521423289372338</v>
+        <v>0.925283194171885</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.575435083429537</v>
+        <v>1.878477401581066</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.925283194171885</v>
+        <v>4</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.878477401581066</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1585189446815884</v>
       </c>
     </row>
@@ -4827,72 +4791,66 @@
         <v>5.55730343031871e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.04066531314889524</v>
+        <v>1.509710718350546e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.665480737528811</v>
+        <v>1.197185549853871e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.509710718350546e-06</v>
+        <v>0.04222912407972686</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.197185549853871e-06</v>
+        <v>0.04532974289068232</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.04222912407972686</v>
+        <v>0.003837403436020046</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.04532974289068232</v>
+        <v>1.431135797000208</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.003837403436020046</v>
+        <v>1.468172941334685</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.346393152701769</v>
+        <v>3.470419636818155</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.468172941334685</v>
+        <v>7.819313801449624e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.470419636818155</v>
+        <v>22675285.89617731</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>7.819313801449624e-15</v>
+        <v>4.51195421632724e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>22675285.89617731</v>
+        <v>4.02044555576038</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.51195421632724e-06</v>
+        <v>0.000164261056261961</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>4.02044555576038</v>
+        <v>10.53249938232562</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.000164261056261961</v>
+        <v>1.130642339319656</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.53249938232562</v>
+        <v>0.01822206098726907</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.130642339319656</v>
+        <v>2.779941479163566</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01822206098726907</v>
+        <v>0.9262695574928919</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.779941479163566</v>
+        <v>1.859391448243326</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9262695574928919</v>
+        <v>4</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.859391448243326</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1571378773250859</v>
       </c>
     </row>
@@ -4907,72 +4865,66 @@
         <v>5.577644040237207e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.09582376558985152</v>
+        <v>1.529319516579368e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.648581791862463</v>
+        <v>1.221286415664206e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.529319516579368e-06</v>
+        <v>0.04419269917362315</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.221286415664206e-06</v>
+        <v>0.04165113437882388</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.04419269917362315</v>
+        <v>0.003687665584877058</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.04165113437882388</v>
+        <v>1.406544250401104</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.003687665584877058</v>
+        <v>1.416287151827563</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.32569160547325</v>
+        <v>3.553088930323564</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.416287151827563</v>
+        <v>7.459684698371351e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.553088930323564</v>
+        <v>24257264.57198825</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>7.459684698371351e-15</v>
+        <v>4.169036197819992e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>24257264.57198825</v>
+        <v>4.389389510313747</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.169036197819992e-06</v>
+        <v>0.0001678525115878273</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>4.389389510313747</v>
+        <v>8.53087230324596</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001678525115878273</v>
+        <v>1.554438549025202</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.53087230324596</v>
+        <v>0.01221559783415125</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.554438549025202</v>
+        <v>2.966662995374708</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01221559783415125</v>
+        <v>0.9223099785271899</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.966662995374708</v>
+        <v>1.862086656779705</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9223099785271899</v>
+        <v>5</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.862086656779705</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1500085398817142</v>
       </c>
     </row>
@@ -4987,72 +4939,66 @@
         <v>5.581789519862848e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.1488355580945747</v>
+        <v>1.53761532449397e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.625314933656652</v>
+        <v>1.246320511277607e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.53761532449397e-06</v>
+        <v>0.04535726134561612</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.246320511277607e-06</v>
+        <v>0.03967446150381711</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.04535726134561612</v>
+        <v>0.003631498795135762</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.03967446150381711</v>
+        <v>1.39392344199871</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.003631498795135762</v>
+        <v>1.413826603118535</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.31299819296871</v>
+        <v>3.459473208558724</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.413826603118535</v>
+        <v>7.350572253443857e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.459473208558724</v>
+        <v>24201011.28483306</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>7.350572253443857e-15</v>
+        <v>4.128103445108889e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>24201011.28483306</v>
+        <v>4.305148924500406</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.128103445108889e-06</v>
+        <v>0.0001676259059177768</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>4.305148924500406</v>
+        <v>8.234592892849479</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001676259059177768</v>
+        <v>1.710853996168014</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.234592892849479</v>
+        <v>0.01136646461254466</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.710853996168014</v>
+        <v>3.015788737911168</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01136646461254466</v>
+        <v>0.9238642362970794</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.015788737911168</v>
+        <v>1.892591601386669</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9238642362970794</v>
+        <v>5</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.892591601386669</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1511641386411067</v>
       </c>
     </row>
@@ -5067,72 +5013,66 @@
         <v>5.569405446362207e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.2010488486526065</v>
+        <v>1.537627625825253e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.597719242999619</v>
+        <v>1.271768978086715e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.537627625825253e-06</v>
+        <v>0.04579952412285734</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.271768978086715e-06</v>
+        <v>0.03920294027022369</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.04579952412285734</v>
+        <v>0.00363471452851588</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.03920294027022369</v>
+        <v>1.395758391738695</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.00363471452851588</v>
+        <v>1.552118581768009</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.311049912039469</v>
+        <v>3.496224236090809</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.552118581768009</v>
+        <v>7.1968514088429e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.496224236090809</v>
+        <v>24815018.52096508</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>7.1968514088429e-15</v>
+        <v>4.023515242338278e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>24815018.52096508</v>
+        <v>4.43171418255036</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.023515242338278e-06</v>
+        <v>0.0001485581576079453</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>4.43171418255036</v>
+        <v>9.561343760312944</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001485581576079453</v>
+        <v>1.224011008330991</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.561343760312944</v>
+        <v>0.01358108196116531</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.224011008330991</v>
+        <v>2.90285548156147</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01358108196116531</v>
+        <v>0.9275447993699225</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.90285548156147</v>
+        <v>1.867806861601984</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9275447993699225</v>
+        <v>5</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.867806861601984</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1636103127987065</v>
       </c>
     </row>
@@ -5147,72 +5087,66 @@
         <v>5.541565840205735e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.2536875399115395</v>
+        <v>1.536961583357529e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.565734261155812</v>
+        <v>1.297232166179692e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.536961583357529e-06</v>
+        <v>0.04574333150070525</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.297232166179692e-06</v>
+        <v>0.03981693126132702</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.04574333150070525</v>
+        <v>0.003678048779662583</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.03981693126132702</v>
+        <v>1.382112682952373</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.003678048779662583</v>
+        <v>1.457748113807419</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.299967975393626</v>
+        <v>3.504388313326113</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.457748113807419</v>
+        <v>7.163357854594664e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.504388313326113</v>
+        <v>24848373.50806848</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>7.163357854594664e-15</v>
+        <v>3.962146623187226e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>24848373.50806848</v>
+        <v>4.422955607869897</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.962146623187226e-06</v>
+        <v>0.0001483968021592287</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>4.422955607869897</v>
+        <v>10.17189889945187</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001483968021592287</v>
+        <v>1.09652471203933</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.17189889945187</v>
+        <v>0.01535425016687041</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.09652471203933</v>
+        <v>2.668207664754062</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01535425016687041</v>
+        <v>0.9276470135588584</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.668207664754062</v>
+        <v>1.888687633017134</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9276470135588584</v>
+        <v>5</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.888687633017134</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1712552801745301</v>
       </c>
     </row>
@@ -5227,72 +5161,66 @@
         <v>5.499330963592196e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.3079667792994483</v>
+        <v>1.529201624204717e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.528051495214096</v>
+        <v>1.322359475800153e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.529201624204717e-06</v>
+        <v>0.04519997808026245</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.322359475800153e-06</v>
+        <v>0.04140580073030797</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.04519997808026245</v>
+        <v>0.003757591187253588</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.04140580073030797</v>
+        <v>1.381777568621258</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.003757591187253588</v>
+        <v>1.525645815759946</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.300575779361728</v>
+        <v>3.519591208075253</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.525645815759946</v>
+        <v>7.101607177403645e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.519591208075253</v>
+        <v>24399253.17254941</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>7.101607177403645e-15</v>
+        <v>4.028143861688791e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>24399253.17254941</v>
+        <v>4.227754033751014</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.028143861688791e-06</v>
+        <v>0.0001394328023817534</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>4.227754033751014</v>
+        <v>9.21501855805381</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001394328023817534</v>
+        <v>1.143524157417823</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.21501855805381</v>
+        <v>0.01184015490897224</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.143524157417823</v>
+        <v>2.833211493133037</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01184015490897224</v>
+        <v>0.928504656909642</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.833211493133037</v>
+        <v>1.893438948764044</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.928504656909642</v>
+        <v>4</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.893438948764044</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1771067084651204</v>
       </c>
     </row>
@@ -5307,72 +5235,66 @@
         <v>5.443439614069114e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.3645453464225927</v>
+        <v>1.517753759365964e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.482838212032057</v>
+        <v>1.346924421219608e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.517753759365964e-06</v>
+        <v>0.04457971286663982</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.346924421219608e-06</v>
+        <v>0.04327465957299388</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.04457971286663982</v>
+        <v>0.003860164250358612</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.04327465957299388</v>
+        <v>1.398785179822237</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.003860164250358612</v>
+        <v>1.418463654911579</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.313966528256113</v>
+        <v>3.507122658888316</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.418463654911579</v>
+        <v>7.152192314021156e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.507122658888316</v>
+        <v>24534167.25695245</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>7.152192314021156e-15</v>
+        <v>4.105999512404038e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>24534167.25695245</v>
+        <v>4.30508595480662</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>4.105999512404038e-06</v>
+        <v>0.0001217317918552138</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>4.30508595480662</v>
+        <v>7.525182398028166</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001217317918552138</v>
+        <v>1.389935306831078</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.525182398028166</v>
+        <v>0.006893472964985226</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.389935306831078</v>
+        <v>3.188047174269281</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.006893472964985226</v>
+        <v>0.9290720047565875</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.188047174269281</v>
+        <v>1.892677598434738</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9290720047565875</v>
+        <v>7</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.892677598434738</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1856562722648551</v>
       </c>
     </row>
@@ -5387,72 +5309,66 @@
         <v>5.375296013419826e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.423209602166373</v>
+        <v>1.50506246077744e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.428462870367842</v>
+        <v>1.370923591820926e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.50506246077744e-06</v>
+        <v>0.04417006884523668</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.370923591820926e-06</v>
+        <v>0.04493126200031118</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.04417006884523668</v>
+        <v>0.003969979216241397</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.04493126200031118</v>
+        <v>1.393891143416048</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.003969979216241397</v>
+        <v>1.417381070441429</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.308060382700896</v>
+        <v>3.566246919540605</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.417381070441429</v>
+        <v>6.917007953806082e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.566246919540605</v>
+        <v>25120669.33179423</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>6.917007953806082e-15</v>
+        <v>3.995857302604785e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>25120669.33179423</v>
+        <v>4.364964226677851</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>3.995857302604785e-06</v>
+        <v>0.0001280323279191042</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>4.364964226677851</v>
+        <v>7.843376835131356</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001280323279191042</v>
+        <v>2.138042538191953</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.843376835131356</v>
+        <v>0.00787636446980486</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>2.138042538191953</v>
+        <v>3.398790079756067</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.00787636446980486</v>
+        <v>0.9276983978991632</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.398790079756067</v>
+        <v>1.895991757672564</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9276983978991632</v>
+        <v>7</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.895991757672564</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1902937274656764</v>
       </c>
     </row>
@@ -5467,72 +5383,66 @@
         <v>5.296628500461633e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.4835507049892385</v>
+        <v>1.492771968417337e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.363800850943559</v>
+        <v>1.394467110959397e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.492771968417337e-06</v>
+        <v>0.04412665152804833</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.394467110959397e-06</v>
+        <v>0.04624750080616512</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.04412665152804833</v>
+        <v>0.004086211760337985</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.04624750080616512</v>
+        <v>1.409095633850165</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.004086211760337985</v>
+        <v>1.439422193449158</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.320621387983795</v>
+        <v>3.645136933365285</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.439422193449158</v>
+        <v>6.620844664424001e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.645136933365285</v>
+        <v>26408890.90875791</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>6.620844664424001e-15</v>
+        <v>3.837686201125984e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>26408890.90875791</v>
+        <v>4.61757250988605</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.837686201125984e-06</v>
+        <v>0.000140962194904038</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>4.61757250988605</v>
+        <v>10.06617037389223</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.000140962194904038</v>
+        <v>1.697796144072857</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>10.06617037389223</v>
+        <v>0.01428338711879461</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.697796144072857</v>
+        <v>3.316163296960046</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01428338711879461</v>
+        <v>0.9306752651735594</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.316163296960046</v>
+        <v>1.902423662797701</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9306752651735594</v>
+        <v>7</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.902423662797701</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1897173578059673</v>
       </c>
     </row>
@@ -5547,72 +5457,66 @@
         <v>5.208608570087155e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.5450647442484923</v>
+        <v>1.482222500515826e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.288467438917913</v>
+        <v>1.417732503554781e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.482222500515826e-06</v>
+        <v>0.04447516750413084</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.417732503554781e-06</v>
+        <v>0.04733575038997607</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.04447516750413084</v>
+        <v>0.004218944178216161</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.04733575038997607</v>
+        <v>1.424750234282884</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.004218944178216161</v>
+        <v>1.572105080002212</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.331976411878632</v>
+        <v>3.693929050154318</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.572105080002212</v>
+        <v>6.44709388889221e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.693929050154318</v>
+        <v>27922510.97104916</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>6.44709388889221e-15</v>
+        <v>3.694719996833179e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>27922510.97104916</v>
+        <v>5.026583894266285</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.694719996833179e-06</v>
+        <v>0.0001243937775927409</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>5.026583894266285</v>
+        <v>10.61250392778362</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001243937775927409</v>
+        <v>1.253318305422669</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.61250392778362</v>
+        <v>0.01400987900827397</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.253318305422669</v>
+        <v>3.144892372047229</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01400987900827397</v>
+        <v>0.9383550226059953</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.144892372047229</v>
+        <v>1.868043753757193</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9383550226059953</v>
+        <v>8</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.868043753757193</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1891112057051399</v>
       </c>
     </row>
@@ -5627,72 +5531,66 @@
         <v>5.111460733853357e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.6075603833611635</v>
+        <v>1.471389243741961e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.202092427733525</v>
+        <v>1.440794324187319e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.471389243741961e-06</v>
+        <v>0.04488912568905393</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.440794324187319e-06</v>
+        <v>0.04856432697168015</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.04488912568905393</v>
+        <v>0.004373757146530754</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.04856432697168015</v>
+        <v>1.449685470758391</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.004373757146530754</v>
+        <v>1.453954363832572</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.353473657673993</v>
+        <v>3.71721470635363</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.453954363832572</v>
+        <v>6.366574138471618e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.71721470635363</v>
+        <v>28311535.86328522</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>6.366574138471618e-15</v>
+        <v>3.682417365341595e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>28311535.86328522</v>
+        <v>5.103083335372941</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.682417365341595e-06</v>
+        <v>0.0001366693808484362</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>5.103083335372941</v>
+        <v>10.19281781599665</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001366693808484362</v>
+        <v>1.107005207691346</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.19281781599665</v>
+        <v>0.01419906510671891</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.107005207691346</v>
+        <v>2.838753302761059</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01419906510671891</v>
+        <v>0.9426025450143513</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.838753302761059</v>
+        <v>1.860028394281325</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9426025450143513</v>
+        <v>7</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.860028394281325</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1797433057792404</v>
       </c>
     </row>
@@ -5707,72 +5605,66 @@
         <v>5.004745058563635e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.6711132061194609</v>
+        <v>1.46024709175941e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.103998144963668</v>
+        <v>1.463618904121955e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.46024709175941e-06</v>
+        <v>0.04535796034847878</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.463618904121955e-06</v>
+        <v>0.04997268302351559</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.04535796034847878</v>
+        <v>0.004554844819305295</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.04997268302351559</v>
+        <v>1.444921901450585</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.004554844819305295</v>
+        <v>1.408108192339838</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.3492935156811</v>
+        <v>3.932948586168889</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.408108192339838</v>
+        <v>5.620037657814943e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.932948586168889</v>
+        <v>32044428.70575726</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>5.620037657814943e-15</v>
+        <v>3.243058649375874e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>32044428.70575726</v>
+        <v>5.770909879014846</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.243058649375874e-06</v>
+        <v>0.0001419321458115424</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>5.770909879014846</v>
+        <v>9.327562208454868</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001419321458115424</v>
+        <v>1.227937909959035</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.327562208454868</v>
+        <v>0.01234858163263177</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.227937909959035</v>
+        <v>2.942658173931967</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01234858163263177</v>
+        <v>0.9434040579435445</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.942658173931967</v>
+        <v>1.884975508185521</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9434040579435445</v>
+        <v>10</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.884975508185521</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1708693826728984</v>
       </c>
     </row>
@@ -6149,7 +6041,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.536130734178143</v>
+        <v>1.564306712206657</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.086990727370271</v>
@@ -6238,7 +6130,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.589576957575275</v>
+        <v>1.614859156183337</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.004111954751458</v>
@@ -6327,7 +6219,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.648168493739733</v>
+        <v>1.665031770962636</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.132097598875994</v>
@@ -6416,7 +6308,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.771418510225529</v>
+        <v>1.779226043275357</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.055750649874544</v>
@@ -6505,7 +6397,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.816393817108277</v>
+        <v>1.818887810380114</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.779226862318468</v>
@@ -6594,7 +6486,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.810216461270336</v>
+        <v>1.818162824581696</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.790370034365494</v>
@@ -6683,7 +6575,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.814984116347281</v>
+        <v>1.822770788051979</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.651773138003955</v>
@@ -6772,7 +6664,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.817792097713937</v>
+        <v>1.825231518648788</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.771226705082895</v>
@@ -6861,7 +6753,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.817813121278428</v>
+        <v>1.824072751149709</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.806239200385058</v>
@@ -6950,7 +6842,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.824221601435682</v>
+        <v>1.826485340734857</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.793484292646572</v>
@@ -7039,7 +6931,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.821428641780509</v>
+        <v>1.821498731048352</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.69016314332371</v>
@@ -7128,7 +7020,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.815710758976644</v>
+        <v>1.815784760221862</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.92387487892226</v>
@@ -7217,7 +7109,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.841537600729838</v>
+        <v>1.833729441010596</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.790880139467731</v>
@@ -7306,7 +7198,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.678597865145746</v>
+        <v>1.658674853348451</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.598110693960176</v>
@@ -7395,7 +7287,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.677660327981827</v>
+        <v>1.657839583358987</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.607555623150269</v>
@@ -7484,7 +7376,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.668507943773786</v>
+        <v>1.649739754480812</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.598435086817853</v>
@@ -7573,7 +7465,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.664960047801738</v>
+        <v>1.642701880231009</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.599974622739447</v>
@@ -7662,7 +7554,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.658965974629552</v>
+        <v>1.634687447546026</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.602427265644869</v>
@@ -7751,7 +7643,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.651706865532987</v>
+        <v>1.624915398920358</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.590636496525157</v>
@@ -7840,7 +7732,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.648700583457917</v>
+        <v>1.623054565744123</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.598223047917529</v>
@@ -7929,7 +7821,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.671531129809769</v>
+        <v>1.637180172940958</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.582904894904001</v>
@@ -8018,7 +7910,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.669855807552024</v>
+        <v>1.635144045150422</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.577801185943001</v>
@@ -8107,7 +7999,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.664635543609265</v>
+        <v>1.627842674686576</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.578760940051697</v>
@@ -8196,7 +8088,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.658812193834824</v>
+        <v>1.621508521557618</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.568306186053754</v>
@@ -8285,7 +8177,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.659308365856759</v>
+        <v>1.624734147928347</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.571916979351521</v>
@@ -8374,7 +8266,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.634857630802023</v>
+        <v>1.606802650667435</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.567625433279106</v>
@@ -8463,7 +8355,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.63610667019761</v>
+        <v>1.608651769883288</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.568639353981679</v>
@@ -8552,7 +8444,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.640301847360409</v>
+        <v>1.610012643601086</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.549686051918592</v>
@@ -8641,7 +8533,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.774193786713405</v>
+        <v>1.767057277061934</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.97798942839661</v>
@@ -8730,7 +8622,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.755296291232408</v>
+        <v>1.754002234759646</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.048646325281753</v>
@@ -8819,7 +8711,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.751371468865317</v>
+        <v>1.751241012071074</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.880986244324971</v>
@@ -8908,7 +8800,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.72146498531393</v>
+        <v>1.728113616418108</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.008775740493876</v>
@@ -8997,7 +8889,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.718220514274807</v>
+        <v>1.729141274008952</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.063037927124141</v>
@@ -9086,7 +8978,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.686946237896136</v>
+        <v>1.70089966753311</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.855409540580456</v>
@@ -9175,7 +9067,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.680928863277755</v>
+        <v>1.694014730360322</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.884500280269972</v>
@@ -9264,7 +9156,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.681657712443799</v>
+        <v>1.693020506958959</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.949790142999982</v>
@@ -9353,7 +9245,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.680629849485117</v>
+        <v>1.695692818445559</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.803474077522079</v>
@@ -9442,7 +9334,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.671646414651186</v>
+        <v>1.687949510690235</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.751851657635194</v>
@@ -9531,7 +9423,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.673289830940129</v>
+        <v>1.691756055375561</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.765714218303565</v>
@@ -9620,7 +9512,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.668367631924816</v>
+        <v>1.681593998490253</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.924077160245691</v>
@@ -9709,7 +9601,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.690015148651229</v>
+        <v>1.693899733837245</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.813651397987611</v>
@@ -9798,7 +9690,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.684716461790631</v>
+        <v>1.689119547352484</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.879688557441453</v>
@@ -9887,7 +9779,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.686977701195143</v>
+        <v>1.687374357155613</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.493632977203747</v>
@@ -9976,7 +9868,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.694232770975834</v>
+        <v>1.691989976197508</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.006977113169098</v>
@@ -10065,7 +9957,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.712986509138902</v>
+        <v>1.703490147468098</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.925894278337833</v>
@@ -10154,7 +10046,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.728953729751292</v>
+        <v>1.71289692549848</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.871998953792626</v>
@@ -10243,7 +10135,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.753172727481828</v>
+        <v>1.736233603514124</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.777840678230139</v>
@@ -10332,7 +10224,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.764883708986288</v>
+        <v>1.7417553891111</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.509381891289347</v>
@@ -10421,7 +10313,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.808822006855072</v>
+        <v>1.778038154400825</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.595192795020143</v>
@@ -10510,7 +10402,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.822406785286695</v>
+        <v>1.791992834514293</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.042700288433026</v>
@@ -10599,7 +10491,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.822260818604611</v>
+        <v>1.792417329612531</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.245080655611881</v>
@@ -10688,7 +10580,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.811123762198442</v>
+        <v>1.777298513739254</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.798115156513642</v>
@@ -10777,7 +10669,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.827630701691324</v>
+        <v>1.789574260439097</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.770051834427912</v>
@@ -10866,7 +10758,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.832513564422737</v>
+        <v>1.792496964089001</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.344616014691651</v>
@@ -10955,7 +10847,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.837562552135252</v>
+        <v>1.798513795046177</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.057955370491932</v>
@@ -11044,7 +10936,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.846413943079171</v>
+        <v>1.81125909846651</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.997125721478621</v>
@@ -11133,7 +11025,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.852398556434904</v>
+        <v>1.818975242460881</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.192504688200268</v>
@@ -11222,7 +11114,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.858220440916736</v>
+        <v>1.827519517507221</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.046712960248157</v>
@@ -11311,7 +11203,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.85176502008187</v>
+        <v>1.822773262971552</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.579930145776722</v>
@@ -11400,7 +11292,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.843739476426951</v>
+        <v>1.818236818405211</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.9900070531327</v>
@@ -11489,7 +11381,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.852487033247708</v>
+        <v>1.827318034707741</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.091859114432104</v>
@@ -11775,7 +11667,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.456925132953244</v>
+        <v>1.466805155182516</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.852883070946896</v>
@@ -11864,7 +11756,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.492884446315947</v>
+        <v>1.502087324373371</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.894468007415667</v>
@@ -11953,7 +11845,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.536448274284599</v>
+        <v>1.534203064258276</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.862586465707599</v>
@@ -12042,7 +11934,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.65956098847854</v>
+        <v>1.645645453639373</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.428576887114369</v>
@@ -12131,7 +12023,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.732752733098916</v>
+        <v>1.704363588549147</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.689194631217773</v>
@@ -12220,7 +12112,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.705115550453863</v>
+        <v>1.682392809417485</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.021069753369066</v>
@@ -12309,7 +12201,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.700877969270439</v>
+        <v>1.672300153659225</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.769257712736088</v>
@@ -12398,7 +12290,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.692951735105683</v>
+        <v>1.66619862090067</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.824892053515775</v>
@@ -12487,7 +12379,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.69316636268731</v>
+        <v>1.663874474111122</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.863723736192823</v>
@@ -12576,7 +12468,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.695979959773904</v>
+        <v>1.666512617783318</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.879970861422632</v>
@@ -12665,7 +12557,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.685739354922147</v>
+        <v>1.652511975066513</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.855702496740987</v>
@@ -12754,7 +12646,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.665253714134561</v>
+        <v>1.636403602972232</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.764844476711044</v>
@@ -12843,7 +12735,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.641824745743211</v>
+        <v>1.604612747729292</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.287313798977927</v>
@@ -12932,7 +12824,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.467662391664727</v>
+        <v>1.470221374712477</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.603890590279998</v>
@@ -13021,7 +12913,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.470706210356699</v>
+        <v>1.480694123826141</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.609747211499172</v>
@@ -13110,7 +13002,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.470410276283245</v>
+        <v>1.482258502285668</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.616865044692195</v>
@@ -13199,7 +13091,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.46719348105778</v>
+        <v>1.480556855093725</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.608157211348515</v>
@@ -13288,7 +13180,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.468172982494035</v>
+        <v>1.483503375910112</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.610829823902961</v>
@@ -13377,7 +13269,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.471653713155539</v>
+        <v>1.486294615015058</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.615790347192342</v>
@@ -13466,7 +13358,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.474950699253706</v>
+        <v>1.492561786042343</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.629160209419643</v>
@@ -13555,7 +13447,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.496532664947993</v>
+        <v>1.517801049598835</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.633791931103045</v>
@@ -13644,7 +13536,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.505709556402728</v>
+        <v>1.527606214239354</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.62874217102254</v>
@@ -13733,7 +13625,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.51058912943789</v>
+        <v>1.536666763375336</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.640646849427953</v>
@@ -13822,7 +13714,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.512155403074842</v>
+        <v>1.540769368284665</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.647767404633765</v>
@@ -13911,7 +13803,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.514638480236772</v>
+        <v>1.543793775240426</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.64191096700579</v>
@@ -14000,7 +13892,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.501931219499191</v>
+        <v>1.532680937778671</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.654382361289111</v>
@@ -14089,7 +13981,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.507164901024963</v>
+        <v>1.538723716185766</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.662857487219695</v>
@@ -14178,7 +14070,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.553303183489186</v>
+        <v>1.580225364696563</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.597559152690543</v>
@@ -14267,7 +14159,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.713427806616982</v>
+        <v>1.734144131482245</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.48938813286929</v>
@@ -14356,7 +14248,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.67993040333655</v>
+        <v>1.704632217379004</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.624034846375624</v>
@@ -14445,7 +14337,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.659330807436731</v>
+        <v>1.683078523095262</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.82011868499939</v>
@@ -14534,7 +14426,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.540353093711887</v>
+        <v>1.562489127690732</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.011846774192611</v>
@@ -14623,7 +14515,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.5184640752407</v>
+        <v>1.550599331917871</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.042929786439527</v>
@@ -14712,7 +14604,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.500837770921896</v>
+        <v>1.53171327338415</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.043220632559558</v>
@@ -14801,7 +14693,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.496975296570955</v>
+        <v>1.526898608915052</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.03083767681922</v>
@@ -14890,7 +14782,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.482154669004182</v>
+        <v>1.509881484860478</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.034313823528441</v>
@@ -14979,7 +14871,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.46475409125629</v>
+        <v>1.493569994775694</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.033105220733283</v>
@@ -15068,7 +14960,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.458160833047456</v>
+        <v>1.48368733302824</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.026862106511381</v>
@@ -15157,7 +15049,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.452971703757183</v>
+        <v>1.476157290667836</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.028428388953387</v>
@@ -15246,7 +15138,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.447857035177744</v>
+        <v>1.467109698146517</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.007454263419484</v>
@@ -15335,7 +15227,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.453751887296792</v>
+        <v>1.472785012936206</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.994736737189821</v>
@@ -15424,7 +15316,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.4490586325969</v>
+        <v>1.46605470526697</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.983975353883124</v>
@@ -15513,7 +15405,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.443269038789301</v>
+        <v>1.458767164441819</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.105990317593057</v>
@@ -15602,7 +15494,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.441778820218456</v>
+        <v>1.450070613583009</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.986994315398138</v>
@@ -15691,7 +15583,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.464007254145647</v>
+        <v>1.470534863436878</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.983434205339512</v>
@@ -15780,7 +15672,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.470983948631686</v>
+        <v>1.476152315429971</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.019482939385408</v>
@@ -15869,7 +15761,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.596644849821921</v>
+        <v>1.597927761952603</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.373017310397921</v>
@@ -15958,7 +15850,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.610292620801734</v>
+        <v>1.606210903280247</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.241451221185877</v>
@@ -16047,7 +15939,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.643410302808925</v>
+        <v>1.636310245863565</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.055674908946658</v>
@@ -16136,7 +16028,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.649381687841489</v>
+        <v>1.642252507013528</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.206363152578549</v>
@@ -16225,7 +16117,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.660144771769351</v>
+        <v>1.646154506655503</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.15011023455102</v>
@@ -16314,7 +16206,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.654062010687239</v>
+        <v>1.642230425000071</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.212362368725422</v>
@@ -16403,7 +16295,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.675834751256613</v>
+        <v>1.66280038071119</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.244286687063302</v>
@@ -16492,7 +16384,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.680241049324758</v>
+        <v>1.665371887939255</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.147366796401466</v>
@@ -16581,7 +16473,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.689547475012101</v>
+        <v>1.678910438774003</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.184408023832253</v>
@@ -16670,7 +16562,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.705223540817273</v>
+        <v>1.69028015747932</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.064967545463576</v>
@@ -16759,7 +16651,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.710509055925296</v>
+        <v>1.699574100896003</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.921638641718704</v>
@@ -16848,7 +16740,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.709368392511184</v>
+        <v>1.700893368377131</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.926092278544769</v>
@@ -16937,7 +16829,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.715291221581118</v>
+        <v>1.706591038980484</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.084111575191378</v>
@@ -17026,7 +16918,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.68345581982896</v>
+        <v>1.680084185678993</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.129809644731508</v>
@@ -17115,7 +17007,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.691147985150322</v>
+        <v>1.68198090003562</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.078941831200353</v>
@@ -17401,7 +17293,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.448327193726056</v>
+        <v>1.447236776509191</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.004160796826372</v>
@@ -17490,7 +17382,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.50068955547603</v>
+        <v>1.495747510134302</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.875367990487663</v>
@@ -17579,7 +17471,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.541244485907989</v>
+        <v>1.536957181333483</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.104968231106097</v>
@@ -17668,7 +17560,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.635038402287574</v>
+        <v>1.622897954490085</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.319894499855549</v>
@@ -17757,7 +17649,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.663208753564303</v>
+        <v>1.651200893154751</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.537515272572158</v>
@@ -17846,7 +17738,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.661488294063638</v>
+        <v>1.654695334408953</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.966321939741887</v>
@@ -17935,7 +17827,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.659462099476356</v>
+        <v>1.654200600098277</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.2337871926731</v>
@@ -18024,7 +17916,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.658960770829969</v>
+        <v>1.655828220452836</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.331730962416962</v>
@@ -18113,7 +18005,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.659789254375015</v>
+        <v>1.65341979999803</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.17782777406708</v>
@@ -18202,7 +18094,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.665993080716927</v>
+        <v>1.657949789405223</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.326311027169797</v>
@@ -18291,7 +18183,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.658705785981069</v>
+        <v>1.650261281220191</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.063104107403297</v>
@@ -18380,7 +18272,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.663923012996965</v>
+        <v>1.648802456202173</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.952976145416457</v>
@@ -18469,7 +18361,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.660387787874793</v>
+        <v>1.648307080908908</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.746759837146441</v>
@@ -18558,7 +18450,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.558300066672509</v>
+        <v>1.512287632263951</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.766339663660047</v>
@@ -18647,7 +18539,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.565586524290974</v>
+        <v>1.526385124231327</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.7726204894315</v>
@@ -18736,7 +18628,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.569949756815631</v>
+        <v>1.529483313096017</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.763276355197038</v>
@@ -18825,7 +18717,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.577293425445728</v>
+        <v>1.534536943248738</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.765334562627944</v>
@@ -18914,7 +18806,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.585610247981661</v>
+        <v>1.53858477072394</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.753463860729227</v>
@@ -19003,7 +18895,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.586607756847</v>
+        <v>1.536634023010925</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.751167274147607</v>
@@ -19092,7 +18984,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.588192465378948</v>
+        <v>1.5382135391002</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.741202498326</v>
@@ -19181,7 +19073,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.590932570105758</v>
+        <v>1.534585252157247</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.73833550213818</v>
@@ -19270,7 +19162,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.585833316406518</v>
+        <v>1.528967903878277</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.759435043374532</v>
@@ -19359,7 +19251,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.583887229769692</v>
+        <v>1.530345695431017</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.751232715242457</v>
@@ -19448,7 +19340,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.587121390599324</v>
+        <v>1.536310543806398</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.754590865052661</v>
@@ -19537,7 +19429,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.582168916119755</v>
+        <v>1.532329289385161</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.756303355512069</v>
@@ -19626,7 +19518,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.572474295035515</v>
+        <v>1.527094538472621</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.763544417013029</v>
@@ -19715,7 +19607,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.572639105973524</v>
+        <v>1.526889526620312</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.754777968668672</v>
@@ -19804,7 +19696,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.609383706505886</v>
+        <v>1.547513155581127</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.82849977976145</v>
@@ -19893,7 +19785,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.709896116971532</v>
+        <v>1.691128384625985</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.611974787637357</v>
@@ -19982,7 +19874,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.694398296119489</v>
+        <v>1.674844077419522</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.106965148730533</v>
@@ -20071,7 +19963,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.69111293427402</v>
+        <v>1.673437633460704</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.996388412417145</v>
@@ -20160,7 +20052,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.656218098538178</v>
+        <v>1.639157968462012</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.024390734718716</v>
@@ -20249,7 +20141,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.648180230879933</v>
+        <v>1.636533845207448</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.216223603136044</v>
@@ -20338,7 +20230,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.622900291770922</v>
+        <v>1.610098606438545</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.637766766256229</v>
@@ -20427,7 +20319,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.613667177984678</v>
+        <v>1.601159904194078</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.710236844345925</v>
@@ -20516,7 +20408,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.61941606338553</v>
+        <v>1.607259981011866</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.645576377676606</v>
@@ -20605,7 +20497,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.621407315889181</v>
+        <v>1.611126184024974</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.76581075215199</v>
@@ -20694,7 +20586,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.615043044441255</v>
+        <v>1.602146314184588</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.690863792664423</v>
@@ -20783,7 +20675,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.608156931451466</v>
+        <v>1.593177471013534</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.716024726050035</v>
@@ -20872,7 +20764,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.616007874697047</v>
+        <v>1.601186025939886</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.70957450970238</v>
@@ -20961,7 +20853,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.62792705732939</v>
+        <v>1.60831953981509</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.706958052932601</v>
@@ -21050,7 +20942,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.625191665450401</v>
+        <v>1.608876830422911</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.503903537249597</v>
@@ -21139,7 +21031,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.621872551594479</v>
+        <v>1.605757806195656</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.564568653552811</v>
@@ -21228,7 +21120,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.634139859593936</v>
+        <v>1.61646199989077</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.686599812726248</v>
@@ -21317,7 +21209,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.64395820818065</v>
+        <v>1.622168387737497</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.720527342357101</v>
@@ -21406,7 +21298,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.648582579008522</v>
+        <v>1.628290008816095</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.545986421893281</v>
@@ -21495,7 +21387,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.678972089419731</v>
+        <v>1.662367446864523</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.744730903668752</v>
@@ -21584,7 +21476,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.680960150518172</v>
+        <v>1.666313568234651</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.613318406276433</v>
@@ -21673,7 +21565,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.711764080440111</v>
+        <v>1.693110564422404</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.616623203305588</v>
@@ -21762,7 +21654,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.719180770958272</v>
+        <v>1.699243266311252</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.895039205677029</v>
@@ -21851,7 +21743,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.716385141338396</v>
+        <v>1.699240413467627</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.897417034251745</v>
@@ -21940,7 +21832,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.705629150218845</v>
+        <v>1.685233620485699</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.400827583642726</v>
@@ -22029,7 +21921,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.71338042460776</v>
+        <v>1.693671443926869</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.612289848812244</v>
@@ -22118,7 +22010,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.713835733426519</v>
+        <v>1.694000365282536</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.148044089674239</v>
@@ -22207,7 +22099,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.719073862779556</v>
+        <v>1.696101643141541</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.932327379195914</v>
@@ -22296,7 +22188,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.730199677534206</v>
+        <v>1.703472158065972</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.661952211952344</v>
@@ -22385,7 +22277,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.730110995127941</v>
+        <v>1.699318913052525</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.903101208423491</v>
@@ -22474,7 +22366,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.735665146628819</v>
+        <v>1.702565258213959</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.837957371457027</v>
@@ -22563,7 +22455,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.733294315805127</v>
+        <v>1.701392856039719</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.585307368439171</v>
@@ -22652,7 +22544,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.728566781374482</v>
+        <v>1.70276598227595</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.043267537084716</v>
@@ -22741,7 +22633,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.725542375866246</v>
+        <v>1.697181373217998</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.555446260062957</v>
@@ -23027,7 +22919,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.5126486940647</v>
+        <v>1.518553823145877</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.99151761025887</v>
@@ -23116,7 +23008,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.553128879099943</v>
+        <v>1.554539193507407</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.983589564948179</v>
@@ -23205,7 +23097,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.600601250987384</v>
+        <v>1.594653690898045</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.03769290826012</v>
@@ -23294,7 +23186,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.711614455080442</v>
+        <v>1.692915328299701</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.810996396862679</v>
@@ -23383,7 +23275,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.740047761763663</v>
+        <v>1.720313948672056</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.304602127514464</v>
@@ -23472,7 +23364,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.745817784910191</v>
+        <v>1.721577092752517</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.119853013196449</v>
@@ -23561,7 +23453,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.753670697703135</v>
+        <v>1.719127515087263</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.194145820904861</v>
@@ -23650,7 +23542,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.75333546751008</v>
+        <v>1.717549834325265</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.098581161917194</v>
@@ -23739,7 +23631,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.758934372670128</v>
+        <v>1.722061976273968</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.908647523550939</v>
@@ -23828,7 +23720,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.763749497346971</v>
+        <v>1.727310050932821</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.948476951847387</v>
@@ -23917,7 +23809,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.760407365710577</v>
+        <v>1.716523036518806</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.997645082188414</v>
@@ -24006,7 +23898,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.75392304238096</v>
+        <v>1.709348204288347</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.96772136252927</v>
@@ -24095,7 +23987,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.751720435667252</v>
+        <v>1.707542057180335</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.393118409778268</v>
@@ -24184,7 +24076,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.680258583304906</v>
+        <v>1.636322566010529</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.822744632420629</v>
@@ -24273,7 +24165,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.682259749629701</v>
+        <v>1.642226897431388</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.808270350788814</v>
@@ -24362,7 +24254,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.683045393050854</v>
+        <v>1.63764079180498</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.827088550937128</v>
@@ -24451,7 +24343,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.689632835747716</v>
+        <v>1.644731759996698</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.810890873131865</v>
@@ -24540,7 +24432,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.688228009290362</v>
+        <v>1.642529657677163</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.803353684893517</v>
@@ -24629,7 +24521,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.694459498800827</v>
+        <v>1.645681888200452</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.809118265464094</v>
@@ -24718,7 +24610,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.695504009898861</v>
+        <v>1.642328986424499</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.806067649907141</v>
@@ -24807,7 +24699,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.695935078290004</v>
+        <v>1.645105639681447</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.800987142230259</v>
@@ -24896,7 +24788,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.695939983795052</v>
+        <v>1.651483949546744</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.809329192363889</v>
@@ -24985,7 +24877,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.698040106471335</v>
+        <v>1.656677442680363</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.828790607826527</v>
@@ -25074,7 +24966,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.695803448224257</v>
+        <v>1.656045263716075</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.818150987406957</v>
@@ -25163,7 +25055,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.691900959561932</v>
+        <v>1.652923714096838</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.829525261072487</v>
@@ -25252,7 +25144,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.686524911216641</v>
+        <v>1.65836548446194</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.84926214506504</v>
@@ -25341,7 +25233,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.688345905129736</v>
+        <v>1.656018076299934</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.850975350332509</v>
@@ -25430,7 +25322,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.691387222136188</v>
+        <v>1.655872058795191</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.808371900022736</v>
@@ -25519,7 +25411,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.733876616974043</v>
+        <v>1.707350996781752</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.920527757008103</v>
@@ -25608,7 +25500,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.729188773466175</v>
+        <v>1.702022386759004</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.114697393559136</v>
@@ -25697,7 +25589,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.713880323484978</v>
+        <v>1.694004539003598</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.151364503941729</v>
@@ -25786,7 +25678,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.67468145228151</v>
+        <v>1.65499842006445</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.130002454910651</v>
@@ -25875,7 +25767,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.666291639451929</v>
+        <v>1.652551604912057</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.06498615254822</v>
@@ -25964,7 +25856,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.631607709160465</v>
+        <v>1.627532009543567</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.534169276481602</v>
@@ -26053,7 +25945,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.630821509569993</v>
+        <v>1.625307405940599</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.540731413081244</v>
@@ -26142,7 +26034,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.623343425183253</v>
+        <v>1.616555126401634</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.437252535798295</v>
@@ -26231,7 +26123,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.610760238700211</v>
+        <v>1.599925506633461</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.460336282739478</v>
@@ -26320,7 +26212,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.608292173790767</v>
+        <v>1.596155443756553</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.559482741158918</v>
@@ -26409,7 +26301,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.610134797756893</v>
+        <v>1.597380698073677</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.450465289945543</v>
@@ -26498,7 +26390,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.608804024760478</v>
+        <v>1.592454432539552</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.522775237723228</v>
@@ -26587,7 +26479,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.627107917476288</v>
+        <v>1.601879780441632</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.471018143127864</v>
@@ -26676,7 +26568,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.630423349545082</v>
+        <v>1.605067877746789</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.436574986989871</v>
@@ -26765,7 +26657,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.628295661381929</v>
+        <v>1.599925815058354</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.473804490593553</v>
@@ -26854,7 +26746,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.641138801681914</v>
+        <v>1.608428919652089</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.451700789550652</v>
@@ -26943,7 +26835,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.643776540258358</v>
+        <v>1.611047925643962</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.588792287176676</v>
@@ -27032,7 +26924,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.661445750763145</v>
+        <v>1.623439022011872</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.404347648898302</v>
@@ -27121,7 +27013,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.701244529420209</v>
+        <v>1.659306617235429</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.600852006376909</v>
@@ -27210,7 +27102,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.70282322422507</v>
+        <v>1.656326183362391</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.414235417697478</v>
@@ -27299,7 +27191,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.743140086984625</v>
+        <v>1.685610222171487</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.32357742358354</v>
@@ -27388,7 +27280,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.741122694714596</v>
+        <v>1.683584021245127</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.38223038589077</v>
@@ -27477,7 +27369,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.749013040673163</v>
+        <v>1.692346505469084</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.701218813213416</v>
@@ -27566,7 +27458,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.751786290556203</v>
+        <v>1.695469438903199</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.824884151406522</v>
@@ -27655,7 +27547,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.754406550719732</v>
+        <v>1.700683957906725</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.209326839840114</v>
@@ -27744,7 +27636,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.757157681826647</v>
+        <v>1.702250393530369</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.594717661680426</v>
@@ -27833,7 +27725,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.759568661980035</v>
+        <v>1.707286361697343</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.815501869492235</v>
@@ -27922,7 +27814,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.746176471078236</v>
+        <v>1.697689526483469</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.142940184292036</v>
@@ -28011,7 +27903,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.748565103368364</v>
+        <v>1.700396354661679</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.026744545965695</v>
@@ -28100,7 +27992,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.763707528300392</v>
+        <v>1.713378201343166</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.064707168228629</v>
@@ -28189,7 +28081,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.644518651616108</v>
+        <v>1.612971263913396</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.916005766268039</v>
@@ -28278,7 +28170,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.619989732206111</v>
+        <v>1.598351950157559</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.908520171490134</v>
@@ -28367,7 +28259,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.617450495414394</v>
+        <v>1.598419399515698</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.915145780978219</v>
@@ -28653,7 +28545,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.216008045084953</v>
+        <v>1.20114846731605</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.389007418243769</v>
@@ -28742,7 +28634,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.220634316083508</v>
+        <v>1.206304272878387</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.383491644331937</v>
@@ -28831,7 +28723,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.230554070633702</v>
+        <v>1.214502579906089</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.402429357582863</v>
@@ -28920,7 +28812,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.502026885470337</v>
+        <v>1.494206854198634</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.79558819478279</v>
@@ -29009,7 +28901,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.607312579878436</v>
+        <v>1.587509192522445</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.605306296035593</v>
@@ -29098,7 +28990,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.624890261049428</v>
+        <v>1.60115946671545</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.017414221919943</v>
@@ -29187,7 +29079,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.630185250976693</v>
+        <v>1.599309388336935</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.137514204183558</v>
@@ -29276,7 +29168,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.64065842310184</v>
+        <v>1.607944899047696</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.320216857491092</v>
@@ -29365,7 +29257,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.649282020704542</v>
+        <v>1.61922785466468</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.955368414356026</v>
@@ -29454,7 +29346,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.653584641673622</v>
+        <v>1.625597609114355</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.883644261534345</v>
@@ -29543,7 +29435,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.661463319421613</v>
+        <v>1.637351432183022</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.01293055099859</v>
@@ -29632,7 +29524,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.649152859204104</v>
+        <v>1.625988881384894</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.137152333698858</v>
@@ -29721,7 +29613,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.626942445274185</v>
+        <v>1.600646854937644</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.717585769770101</v>
@@ -29810,7 +29702,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.511852176934664</v>
+        <v>1.501344459985056</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.923652268228499</v>
@@ -29899,7 +29791,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.521753902941529</v>
+        <v>1.513439299740746</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.889868634809453</v>
@@ -29988,7 +29880,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.527403332066621</v>
+        <v>1.516843044582419</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.880480396827254</v>
@@ -30077,7 +29969,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.536467929914829</v>
+        <v>1.52775195531175</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.914626381213067</v>
@@ -30166,7 +30058,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.531564210281448</v>
+        <v>1.527090602019775</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.938445095481108</v>
@@ -30255,7 +30147,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.53263956657945</v>
+        <v>1.524978197720444</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.939498807208154</v>
@@ -30344,7 +30236,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.535289581490556</v>
+        <v>1.527210234905775</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.963664331725164</v>
@@ -30433,7 +30325,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.548943116122563</v>
+        <v>1.544199114205028</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.958225739936421</v>
@@ -30522,7 +30414,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.560111793338766</v>
+        <v>1.555924851467914</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.944817189848788</v>
@@ -30611,7 +30503,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.564606354049042</v>
+        <v>1.563591697291724</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.984865726743292</v>
@@ -30700,7 +30592,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.569448870602389</v>
+        <v>1.56596484637945</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.995377210144648</v>
@@ -30789,7 +30681,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.569130867008586</v>
+        <v>1.567244874495629</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.96829685195859</v>
@@ -30878,7 +30770,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.547336848756078</v>
+        <v>1.547710178312751</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.964527057470309</v>
@@ -30967,7 +30859,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.54874218255778</v>
+        <v>1.546018529293371</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.986764849875157</v>
@@ -31056,7 +30948,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.56272433671428</v>
+        <v>1.562681513054696</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.944838563622012</v>
@@ -31145,7 +31037,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.656925840754191</v>
+        <v>1.651078048450701</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.82607470920927</v>
@@ -31234,7 +31126,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.65089896076153</v>
+        <v>1.652680296811432</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.991247062281471</v>
@@ -31323,7 +31215,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.617757730513456</v>
+        <v>1.618853707026464</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.266425079008601</v>
@@ -31412,7 +31304,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.501157167084285</v>
+        <v>1.505709590837531</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.982387113939406</v>
@@ -31501,7 +31393,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.493446996466866</v>
+        <v>1.506582231543892</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.018636394686909</v>
@@ -31590,7 +31482,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.366574739061883</v>
+        <v>1.374286032028946</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.624964232772447</v>
@@ -31679,7 +31571,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.356132133545648</v>
+        <v>1.366304260402533</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.621540437143315</v>
@@ -31768,7 +31660,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.349980740974659</v>
+        <v>1.359043101561265</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.621246683378094</v>
@@ -31857,7 +31749,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.341834150779676</v>
+        <v>1.352006027014274</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.62184562614446</v>
@@ -31946,7 +31838,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.339793353810854</v>
+        <v>1.347944589384646</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.619100127023777</v>
@@ -32035,7 +31927,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.337057332273582</v>
+        <v>1.343946478642196</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.62190085703382</v>
@@ -32124,7 +32016,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.334215872799468</v>
+        <v>1.339171929861344</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.613850772836318</v>
@@ -32213,7 +32105,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.342429992866529</v>
+        <v>1.346147600316485</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.606601539197358</v>
@@ -32302,7 +32194,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.339510171943881</v>
+        <v>1.342676565708474</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.593278035049107</v>
@@ -32391,7 +32283,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.340562780875774</v>
+        <v>1.3428240400228</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.592276878370867</v>
@@ -32480,7 +32372,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.338521830860746</v>
+        <v>1.339874364071884</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.593681892369012</v>
@@ -32569,7 +32461,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.337549090488099</v>
+        <v>1.336266956688558</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.60185164906478</v>
@@ -32658,7 +32550,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.359481714514228</v>
+        <v>1.357965310453921</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.601442860943156</v>
@@ -32747,7 +32639,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.40927904388647</v>
+        <v>1.410642531147535</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.580411405948569</v>
@@ -32836,7 +32728,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.413075495363819</v>
+        <v>1.411299620601425</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.585723990561265</v>
@@ -32925,7 +32817,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.632809736344706</v>
+        <v>1.621522341546778</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.538729740095869</v>
@@ -33014,7 +32906,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.650046660338966</v>
+        <v>1.631081416126955</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.080832634082627</v>
@@ -33103,7 +32995,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.655393416181313</v>
+        <v>1.634979284440222</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.968886318466948</v>
@@ -33192,7 +33084,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.653758180806574</v>
+        <v>1.625676797539806</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.123728366013024</v>
@@ -33281,7 +33173,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.660522862421555</v>
+        <v>1.629619754250229</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.799943208420123</v>
@@ -33370,7 +33262,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.657392577074131</v>
+        <v>1.625376052933678</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.797957858331807</v>
@@ -33459,7 +33351,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.663990700165663</v>
+        <v>1.629894272602312</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.046559702690629</v>
@@ -33548,7 +33440,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.651765085271642</v>
+        <v>1.619545264233658</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.009976470820252</v>
@@ -33637,7 +33529,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.657664662462282</v>
+        <v>1.630327449258399</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.051357244282245</v>
@@ -33726,7 +33618,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.640483725408482</v>
+        <v>1.618326072970102</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.15923546015026</v>
@@ -33815,7 +33707,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.647751654083025</v>
+        <v>1.625581809421555</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.857538402876012</v>
@@ -33904,7 +33796,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.644557663108338</v>
+        <v>1.623175709740211</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.056796295024721</v>
@@ -33993,7 +33885,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.634376897357376</v>
+        <v>1.616668221160597</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.234498915176393</v>
@@ -34279,7 +34171,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.485415333939869</v>
+        <v>1.511644314362298</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.284436138664804</v>
@@ -34368,7 +34260,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.532503720104521</v>
+        <v>1.555413907987274</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.260998251625314</v>
@@ -34457,7 +34349,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.603003820405845</v>
+        <v>1.621569116739312</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.130869284030231</v>
@@ -34546,7 +34438,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.678579631656551</v>
+        <v>1.692432198463135</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.882502031762366</v>
@@ -34635,7 +34527,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.678894507577521</v>
+        <v>1.695827152820148</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.566840004185151</v>
@@ -34724,7 +34616,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.667669011070677</v>
+        <v>1.691357621474651</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.595833770868378</v>
@@ -34813,7 +34705,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.672402159212612</v>
+        <v>1.697092660173762</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.658878438900897</v>
@@ -34902,7 +34794,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.670887603446163</v>
+        <v>1.695255598371072</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.51297341907525</v>
@@ -34991,7 +34883,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.669257615542268</v>
+        <v>1.694253667625144</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.649113517951285</v>
@@ -35080,7 +34972,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.661126727051238</v>
+        <v>1.686515925763252</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.550874986810741</v>
@@ -35169,7 +35061,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.655630338906513</v>
+        <v>1.676034908040512</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.646437387044533</v>
@@ -35258,7 +35150,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.643407696828443</v>
+        <v>1.665023822829098</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.751637926653565</v>
@@ -35347,7 +35239,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.662200757333841</v>
+        <v>1.684541670861993</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.593346890960286</v>
@@ -35436,7 +35328,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.634004174097347</v>
+        <v>1.633280786221233</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.003471254901526</v>
@@ -35525,7 +35417,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.631158164331158</v>
+        <v>1.631508568557906</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.988919784471686</v>
@@ -35614,7 +35506,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.61554023047484</v>
+        <v>1.615005145281705</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.009062930596315</v>
@@ -35703,7 +35595,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.614099319502469</v>
+        <v>1.611617735718646</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.011562444296903</v>
@@ -35792,7 +35684,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.609482865041348</v>
+        <v>1.604525977079875</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.994498255579493</v>
@@ -35881,7 +35773,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.601613241643774</v>
+        <v>1.59679473279324</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.971320097727695</v>
@@ -35970,7 +35862,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.600830788832179</v>
+        <v>1.594572527081497</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.933940933121263</v>
@@ -36059,7 +35951,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.644839321016934</v>
+        <v>1.628722415385298</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.962513925388508</v>
@@ -36148,7 +36040,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.647322164943808</v>
+        <v>1.623827872384797</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.926877168478579</v>
@@ -36237,7 +36129,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.635565052593139</v>
+        <v>1.611346934747696</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.912424634239158</v>
@@ -36326,7 +36218,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.635114934165156</v>
+        <v>1.611828003748124</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.948766908742753</v>
@@ -36415,7 +36307,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.633663870113738</v>
+        <v>1.613651164636759</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.944964063153299</v>
@@ -36504,7 +36396,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.62220452746922</v>
+        <v>1.603886073755279</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.916293955079445</v>
@@ -36593,7 +36485,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.617369119842966</v>
+        <v>1.596730952451638</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.957699772257734</v>
@@ -36682,7 +36574,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.625718557041754</v>
+        <v>1.598927265696206</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.871712201879798</v>
@@ -36771,7 +36663,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.638870901538809</v>
+        <v>1.636963311938781</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.82667483782327</v>
@@ -36860,7 +36752,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.641002057838672</v>
+        <v>1.637158968931704</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.763690894991143</v>
@@ -36949,7 +36841,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.629821045298991</v>
+        <v>1.627800038518003</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.041593146355166</v>
@@ -37038,7 +36930,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.558730360195846</v>
+        <v>1.561977034116247</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.512500319782923</v>
@@ -37127,7 +37019,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.552734624667399</v>
+        <v>1.562359651106787</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.60643389953825</v>
@@ -37216,7 +37108,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.535751541549111</v>
+        <v>1.540981578604586</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.479470817616777</v>
@@ -37305,7 +37197,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.534878468467801</v>
+        <v>1.536012135743688</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.572781742195477</v>
@@ -37394,7 +37286,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.530987791474424</v>
+        <v>1.535061360775588</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.495625689900418</v>
@@ -37483,7 +37375,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.531481305734399</v>
+        <v>1.534989366510164</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.669128158673218</v>
@@ -37572,7 +37464,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.535829089594432</v>
+        <v>1.541528468898624</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.610868292077682</v>
@@ -37661,7 +37553,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.534169156116598</v>
+        <v>1.538691923884559</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.774559585879283</v>
@@ -37750,7 +37642,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.534281878588949</v>
+        <v>1.53641779162371</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.592700433126073</v>
@@ -37839,7 +37731,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.544219055352932</v>
+        <v>1.541580697641476</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.569910590056488</v>
@@ -37928,7 +37820,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.543656576436405</v>
+        <v>1.539349022557636</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.607406170538014</v>
@@ -38017,7 +37909,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.5371040429144</v>
+        <v>1.533814427759965</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.331956159980649</v>
@@ -38106,7 +37998,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.546355630311427</v>
+        <v>1.538393128072489</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.495303965606162</v>
@@ -38195,7 +38087,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.547716249361989</v>
+        <v>1.542285452591871</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.487156042150716</v>
@@ -38284,7 +38176,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.579771229428798</v>
+        <v>1.565162177533223</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.457879936614057</v>
@@ -38373,7 +38265,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.628281532165017</v>
+        <v>1.604276874100542</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.583975518608048</v>
@@ -38462,7 +38354,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.632423678662813</v>
+        <v>1.608924163675089</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.425992848300309</v>
@@ -38551,7 +38443,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.657814790020947</v>
+        <v>1.634990863596613</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.959030618343389</v>
@@ -38640,7 +38532,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.653906836050937</v>
+        <v>1.63553766326147</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.790677723814912</v>
@@ -38729,7 +38621,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.653685454003354</v>
+        <v>1.630221132361302</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.527143608725968</v>
@@ -38818,7 +38710,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.662481286343457</v>
+        <v>1.643793685056552</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.015315031585335</v>
@@ -38907,7 +38799,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.667629104233381</v>
+        <v>1.646762974181486</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.652230125422305</v>
@@ -38996,7 +38888,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.677000428014968</v>
+        <v>1.65390030474825</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.727008068545958</v>
@@ -39085,7 +38977,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.670183436087536</v>
+        <v>1.646734570985185</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.242927452740837</v>
@@ -39174,7 +39066,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.664641232576881</v>
+        <v>1.641549751280773</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.359534976094972</v>
@@ -39263,7 +39155,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.678082031855152</v>
+        <v>1.656492918530899</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.240946177305835</v>
@@ -39352,7 +39244,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.68308085746249</v>
+        <v>1.660989919372928</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.728657126491035</v>
@@ -39441,7 +39333,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.681145032080532</v>
+        <v>1.665092136842625</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.707145746571383</v>
@@ -39530,7 +39422,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.683940944084027</v>
+        <v>1.664777501461031</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.591277334860147</v>
@@ -39619,7 +39511,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.689525218179324</v>
+        <v>1.674515300542118</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.574016030105853</v>
